--- a/venta_departamento_magallanes-y-antartica-chilena.xlsx
+++ b/venta_departamento_magallanes-y-antartica-chilena.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -25,6 +25,21 @@
     <t>Precio</t>
   </si>
   <si>
+    <t>minMet</t>
+  </si>
+  <si>
+    <t>maxMet</t>
+  </si>
+  <si>
+    <t>promM</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
     <t>link</t>
   </si>
   <si>
@@ -32,6 +47,12 @@
   </si>
   <si>
     <t>$ 266.195.328</t>
+  </si>
+  <si>
+    <t>-33.83907</t>
+  </si>
+  <si>
+    <t>-70.77500</t>
   </si>
   <si>
     <t>http://www.portalinmobiliario.com/venta/departamento/antartica-magallanes-y-antartica-chilena/169-edificio-los-treboles-nva?tp=2&amp;op=1&amp;iug=452&amp;ca=3&amp;ts=1&amp;mn=1&amp;or=&amp;sf=0&amp;sp=0&amp;at=0&amp;i</t>
@@ -375,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,7 +406,7 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,24 +419,54 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>55</v>
+      </c>
+      <c r="E2">
+        <v>95.04000000000001</v>
+      </c>
+      <c r="F2">
+        <v>75.02000000000001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
